--- a/CDNS.xlsx
+++ b/CDNS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73001DE2-95F4-4D7A-9D6B-332635FAB674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF1503B-1ED7-4CBF-827B-DCACCD0FBEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{7ADB12D2-1AD7-4E35-8D67-939C918E46AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{7ADB12D2-1AD7-4E35-8D67-939C918E46AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -176,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,14 +188,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -209,6 +207,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,21 +242,22 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -583,44 +596,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C494F842-B64D-4B21-BF23-E40D39D7780F}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>304.60000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="3">
         <v>273.04199999999997</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="3">
@@ -628,30 +642,30 @@
         <v>83168.593200000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="3">
         <v>2777.674</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="3">
         <v>2477.1590000000001</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="3">
@@ -668,52 +682,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3F3841-66A4-4A2E-B2F8-294969E1DFA4}">
   <dimension ref="A1:AY495"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30:J32"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="3">
@@ -770,8 +785,8 @@
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="3">
@@ -828,8 +843,8 @@
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="3">
@@ -888,8 +903,8 @@
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3">
@@ -946,8 +961,8 @@
       <c r="AX6" s="3"/>
       <c r="AY6" s="3"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3">
@@ -1004,51 +1019,51 @@
       <c r="AX7" s="3"/>
       <c r="AY7" s="3"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <f t="shared" ref="C8:F8" si="0">+C6+C7</f>
         <v>1009.103</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <f>+G6+G7</f>
         <v>1242.366</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <f>+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -1076,8 +1091,8 @@
       <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="3">
@@ -1134,8 +1149,8 @@
       <c r="AX9" s="3"/>
       <c r="AY9" s="3"/>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="3">
@@ -1192,8 +1207,8 @@
       <c r="AX10" s="3"/>
       <c r="AY10" s="3"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3">
@@ -1264,8 +1279,8 @@
       <c r="AX11" s="3"/>
       <c r="AY11" s="3"/>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3">
@@ -1322,8 +1337,8 @@
       <c r="AX12" s="3"/>
       <c r="AY12" s="3"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3">
@@ -1380,8 +1395,8 @@
       <c r="AX13" s="3"/>
       <c r="AY13" s="3"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="3">
@@ -1438,8 +1453,8 @@
       <c r="AX14" s="3"/>
       <c r="AY14" s="3"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="3">
@@ -1496,8 +1511,8 @@
       <c r="AX15" s="3"/>
       <c r="AY15" s="3"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="3">
@@ -1554,8 +1569,8 @@
       <c r="AX16" s="3"/>
       <c r="AY16" s="3"/>
     </row>
-    <row r="17" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="3">
@@ -1626,8 +1641,8 @@
       <c r="AX17" s="3"/>
       <c r="AY17" s="3"/>
     </row>
-    <row r="18" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="3">
@@ -1684,8 +1699,8 @@
       <c r="AX18" s="3"/>
       <c r="AY18" s="3"/>
     </row>
-    <row r="19" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="3">
@@ -1742,8 +1757,8 @@
       <c r="AX19" s="3"/>
       <c r="AY19" s="3"/>
     </row>
-    <row r="20" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="3">
@@ -1814,8 +1829,8 @@
       <c r="AX20" s="3"/>
       <c r="AY20" s="3"/>
     </row>
-    <row r="21" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="3">
@@ -1872,8 +1887,8 @@
       <c r="AX21" s="3"/>
       <c r="AY21" s="3"/>
     </row>
-    <row r="22" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="3">
@@ -1944,7 +1959,7 @@
       <c r="AX22" s="3"/>
       <c r="AY22" s="3"/>
     </row>
-    <row r="23" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:51" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1995,27 +2010,27 @@
       <c r="AX23" s="3"/>
       <c r="AY23" s="3"/>
     </row>
-    <row r="24" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <f t="shared" ref="C24:F24" si="8">+C22/C25</f>
         <v>0.91853667945075368</v>
       </c>
-      <c r="D24" s="6" t="e">
+      <c r="D24" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="6" t="e">
+      <c r="E24" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="6" t="e">
+      <c r="F24" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="7">
         <f>+G22/G25</f>
         <v>1.0059049979225883</v>
       </c>
@@ -2064,8 +2079,8 @@
       <c r="AX24" s="3"/>
       <c r="AY24" s="3"/>
     </row>
-    <row r="25" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="3">
@@ -2122,7 +2137,7 @@
       <c r="AX25" s="3"/>
       <c r="AY25" s="3"/>
     </row>
-    <row r="26" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:51" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2173,27 +2188,27 @@
       <c r="AX26" s="3"/>
       <c r="AY26" s="3"/>
     </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="7">
+      <c r="G27" s="8">
         <f>+G6/C6-1</f>
         <v>0.21619032499986313</v>
       </c>
-      <c r="H27" s="7" t="e">
+      <c r="H27" s="8" t="e">
         <f t="shared" ref="H27:J28" si="9">+H6/D6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="7" t="e">
+      <c r="I27" s="8" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="7" t="e">
+      <c r="J27" s="8" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -2239,27 +2254,27 @@
       <c r="AX27" s="3"/>
       <c r="AY27" s="3"/>
     </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="7">
+      <c r="G28" s="8">
         <f t="shared" ref="G28:G29" si="10">+G7/C7-1</f>
         <v>0.37399444200672805</v>
       </c>
-      <c r="H28" s="7" t="e">
+      <c r="H28" s="8" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="7" t="e">
+      <c r="I28" s="8" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="7" t="e">
+      <c r="J28" s="8" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -2305,27 +2320,27 @@
       <c r="AX28" s="3"/>
       <c r="AY28" s="3"/>
     </row>
-    <row r="29" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="8">
+      <c r="G29" s="9">
         <f t="shared" si="10"/>
         <v>0.23115876179141281</v>
       </c>
-      <c r="H29" s="8" t="e">
+      <c r="H29" s="9" t="e">
         <f t="shared" ref="H29" si="11">+H8/D8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="8" t="e">
+      <c r="I29" s="9" t="e">
         <f t="shared" ref="I29" si="12">+I8/E8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="8" t="e">
+      <c r="J29" s="9" t="e">
         <f t="shared" ref="J29" si="13">+J8/F8-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -2371,39 +2386,39 @@
       <c r="AX29" s="3"/>
       <c r="AY29" s="3"/>
     </row>
-    <row r="30" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="7">
-        <f t="shared" ref="C30:G30" si="14">+C11/C8</f>
+      <c r="C30" s="8">
+        <f t="shared" ref="C30:F30" si="14">+C11/C8</f>
         <v>0.87593238747679869</v>
       </c>
-      <c r="D30" s="7" t="e">
+      <c r="D30" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="7" t="e">
+      <c r="E30" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="7" t="e">
+      <c r="F30" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="8">
         <f>+G11/G8</f>
         <v>0.86547201066352419</v>
       </c>
-      <c r="H30" s="7" t="e">
+      <c r="H30" s="8" t="e">
         <f t="shared" ref="H30:J30" si="15">+H11/H8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="7" t="e">
+      <c r="I30" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="7" t="e">
+      <c r="J30" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -2449,39 +2464,39 @@
       <c r="AX30" s="3"/>
       <c r="AY30" s="3"/>
     </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="7">
-        <f t="shared" ref="C31:G31" si="16">+C17/C8</f>
+      <c r="C31" s="8">
+        <f t="shared" ref="C31:F31" si="16">+C17/C8</f>
         <v>0.24770117619311399</v>
       </c>
-      <c r="D31" s="7" t="e">
+      <c r="D31" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="7" t="e">
+      <c r="E31" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="7" t="e">
+      <c r="F31" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
         <f>+G17/G8</f>
         <v>0.29099315338636128</v>
       </c>
-      <c r="H31" s="7" t="e">
+      <c r="H31" s="8" t="e">
         <f t="shared" ref="H31:J31" si="17">+H17/H8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="7" t="e">
+      <c r="I31" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="7" t="e">
+      <c r="J31" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -2527,39 +2542,39 @@
       <c r="AX31" s="3"/>
       <c r="AY31" s="3"/>
     </row>
-    <row r="32" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="7">
-        <f t="shared" ref="C32:G32" si="18">+C21/C20</f>
+      <c r="C32" s="8">
+        <f t="shared" ref="C32:F32" si="18">+C21/C20</f>
         <v>0.20126240553729652</v>
       </c>
-      <c r="D32" s="7" t="e">
+      <c r="D32" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="7" t="e">
+      <c r="E32" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="7" t="e">
+      <c r="F32" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="8">
         <f>+G21/G20</f>
         <v>0.23085422219223364</v>
       </c>
-      <c r="H32" s="7" t="e">
+      <c r="H32" s="8" t="e">
         <f t="shared" ref="H32:J32" si="19">+H21/H20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="7" t="e">
+      <c r="I32" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="7" t="e">
+      <c r="J32" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
@@ -2605,7 +2620,7 @@
       <c r="AX32" s="3"/>
       <c r="AY32" s="3"/>
     </row>
-    <row r="33" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2656,7 +2671,7 @@
       <c r="AX33" s="3"/>
       <c r="AY33" s="3"/>
     </row>
-    <row r="34" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2707,7 +2722,7 @@
       <c r="AX34" s="3"/>
       <c r="AY34" s="3"/>
     </row>
-    <row r="35" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2758,7 +2773,7 @@
       <c r="AX35" s="3"/>
       <c r="AY35" s="3"/>
     </row>
-    <row r="36" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2809,7 +2824,7 @@
       <c r="AX36" s="3"/>
       <c r="AY36" s="3"/>
     </row>
-    <row r="37" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2860,7 +2875,7 @@
       <c r="AX37" s="3"/>
       <c r="AY37" s="3"/>
     </row>
-    <row r="38" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2911,7 +2926,7 @@
       <c r="AX38" s="3"/>
       <c r="AY38" s="3"/>
     </row>
-    <row r="39" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2962,7 +2977,7 @@
       <c r="AX39" s="3"/>
       <c r="AY39" s="3"/>
     </row>
-    <row r="40" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3013,7 +3028,7 @@
       <c r="AX40" s="3"/>
       <c r="AY40" s="3"/>
     </row>
-    <row r="41" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3064,7 +3079,7 @@
       <c r="AX41" s="3"/>
       <c r="AY41" s="3"/>
     </row>
-    <row r="42" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3115,7 +3130,7 @@
       <c r="AX42" s="3"/>
       <c r="AY42" s="3"/>
     </row>
-    <row r="43" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3166,7 +3181,7 @@
       <c r="AX43" s="3"/>
       <c r="AY43" s="3"/>
     </row>
-    <row r="44" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3217,7 +3232,7 @@
       <c r="AX44" s="3"/>
       <c r="AY44" s="3"/>
     </row>
-    <row r="45" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3268,7 +3283,7 @@
       <c r="AX45" s="3"/>
       <c r="AY45" s="3"/>
     </row>
-    <row r="46" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3319,7 +3334,7 @@
       <c r="AX46" s="3"/>
       <c r="AY46" s="3"/>
     </row>
-    <row r="47" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3370,7 +3385,7 @@
       <c r="AX47" s="3"/>
       <c r="AY47" s="3"/>
     </row>
-    <row r="48" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3421,7 +3436,7 @@
       <c r="AX48" s="3"/>
       <c r="AY48" s="3"/>
     </row>
-    <row r="49" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3472,7 +3487,7 @@
       <c r="AX49" s="3"/>
       <c r="AY49" s="3"/>
     </row>
-    <row r="50" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3523,7 +3538,7 @@
       <c r="AX50" s="3"/>
       <c r="AY50" s="3"/>
     </row>
-    <row r="51" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3574,7 +3589,7 @@
       <c r="AX51" s="3"/>
       <c r="AY51" s="3"/>
     </row>
-    <row r="52" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3625,7 +3640,7 @@
       <c r="AX52" s="3"/>
       <c r="AY52" s="3"/>
     </row>
-    <row r="53" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3676,7 +3691,7 @@
       <c r="AX53" s="3"/>
       <c r="AY53" s="3"/>
     </row>
-    <row r="54" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3727,7 +3742,7 @@
       <c r="AX54" s="3"/>
       <c r="AY54" s="3"/>
     </row>
-    <row r="55" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3778,7 +3793,7 @@
       <c r="AX55" s="3"/>
       <c r="AY55" s="3"/>
     </row>
-    <row r="56" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3829,7 +3844,7 @@
       <c r="AX56" s="3"/>
       <c r="AY56" s="3"/>
     </row>
-    <row r="57" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3880,7 +3895,7 @@
       <c r="AX57" s="3"/>
       <c r="AY57" s="3"/>
     </row>
-    <row r="58" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3931,7 +3946,7 @@
       <c r="AX58" s="3"/>
       <c r="AY58" s="3"/>
     </row>
-    <row r="59" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3982,7 +3997,7 @@
       <c r="AX59" s="3"/>
       <c r="AY59" s="3"/>
     </row>
-    <row r="60" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4033,7 +4048,7 @@
       <c r="AX60" s="3"/>
       <c r="AY60" s="3"/>
     </row>
-    <row r="61" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4084,7 +4099,7 @@
       <c r="AX61" s="3"/>
       <c r="AY61" s="3"/>
     </row>
-    <row r="62" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4135,7 +4150,7 @@
       <c r="AX62" s="3"/>
       <c r="AY62" s="3"/>
     </row>
-    <row r="63" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4186,7 +4201,7 @@
       <c r="AX63" s="3"/>
       <c r="AY63" s="3"/>
     </row>
-    <row r="64" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4237,7 +4252,7 @@
       <c r="AX64" s="3"/>
       <c r="AY64" s="3"/>
     </row>
-    <row r="65" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4288,7 +4303,7 @@
       <c r="AX65" s="3"/>
       <c r="AY65" s="3"/>
     </row>
-    <row r="66" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4339,7 +4354,7 @@
       <c r="AX66" s="3"/>
       <c r="AY66" s="3"/>
     </row>
-    <row r="67" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4390,7 +4405,7 @@
       <c r="AX67" s="3"/>
       <c r="AY67" s="3"/>
     </row>
-    <row r="68" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4441,7 +4456,7 @@
       <c r="AX68" s="3"/>
       <c r="AY68" s="3"/>
     </row>
-    <row r="69" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4492,7 +4507,7 @@
       <c r="AX69" s="3"/>
       <c r="AY69" s="3"/>
     </row>
-    <row r="70" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4543,7 +4558,7 @@
       <c r="AX70" s="3"/>
       <c r="AY70" s="3"/>
     </row>
-    <row r="71" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4594,7 +4609,7 @@
       <c r="AX71" s="3"/>
       <c r="AY71" s="3"/>
     </row>
-    <row r="72" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4645,7 +4660,7 @@
       <c r="AX72" s="3"/>
       <c r="AY72" s="3"/>
     </row>
-    <row r="73" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4696,7 +4711,7 @@
       <c r="AX73" s="3"/>
       <c r="AY73" s="3"/>
     </row>
-    <row r="74" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4747,7 +4762,7 @@
       <c r="AX74" s="3"/>
       <c r="AY74" s="3"/>
     </row>
-    <row r="75" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -4798,7 +4813,7 @@
       <c r="AX75" s="3"/>
       <c r="AY75" s="3"/>
     </row>
-    <row r="76" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4849,7 +4864,7 @@
       <c r="AX76" s="3"/>
       <c r="AY76" s="3"/>
     </row>
-    <row r="77" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4900,7 +4915,7 @@
       <c r="AX77" s="3"/>
       <c r="AY77" s="3"/>
     </row>
-    <row r="78" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -4951,7 +4966,7 @@
       <c r="AX78" s="3"/>
       <c r="AY78" s="3"/>
     </row>
-    <row r="79" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5002,7 +5017,7 @@
       <c r="AX79" s="3"/>
       <c r="AY79" s="3"/>
     </row>
-    <row r="80" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5053,7 +5068,7 @@
       <c r="AX80" s="3"/>
       <c r="AY80" s="3"/>
     </row>
-    <row r="81" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5104,7 +5119,7 @@
       <c r="AX81" s="3"/>
       <c r="AY81" s="3"/>
     </row>
-    <row r="82" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5155,7 +5170,7 @@
       <c r="AX82" s="3"/>
       <c r="AY82" s="3"/>
     </row>
-    <row r="83" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5206,7 +5221,7 @@
       <c r="AX83" s="3"/>
       <c r="AY83" s="3"/>
     </row>
-    <row r="84" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5257,7 +5272,7 @@
       <c r="AX84" s="3"/>
       <c r="AY84" s="3"/>
     </row>
-    <row r="85" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5308,7 +5323,7 @@
       <c r="AX85" s="3"/>
       <c r="AY85" s="3"/>
     </row>
-    <row r="86" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5359,7 +5374,7 @@
       <c r="AX86" s="3"/>
       <c r="AY86" s="3"/>
     </row>
-    <row r="87" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5410,7 +5425,7 @@
       <c r="AX87" s="3"/>
       <c r="AY87" s="3"/>
     </row>
-    <row r="88" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5461,7 +5476,7 @@
       <c r="AX88" s="3"/>
       <c r="AY88" s="3"/>
     </row>
-    <row r="89" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5512,7 +5527,7 @@
       <c r="AX89" s="3"/>
       <c r="AY89" s="3"/>
     </row>
-    <row r="90" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -5563,7 +5578,7 @@
       <c r="AX90" s="3"/>
       <c r="AY90" s="3"/>
     </row>
-    <row r="91" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5614,7 +5629,7 @@
       <c r="AX91" s="3"/>
       <c r="AY91" s="3"/>
     </row>
-    <row r="92" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -5665,7 +5680,7 @@
       <c r="AX92" s="3"/>
       <c r="AY92" s="3"/>
     </row>
-    <row r="93" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -5716,7 +5731,7 @@
       <c r="AX93" s="3"/>
       <c r="AY93" s="3"/>
     </row>
-    <row r="94" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -5767,7 +5782,7 @@
       <c r="AX94" s="3"/>
       <c r="AY94" s="3"/>
     </row>
-    <row r="95" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -5818,7 +5833,7 @@
       <c r="AX95" s="3"/>
       <c r="AY95" s="3"/>
     </row>
-    <row r="96" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -5869,7 +5884,7 @@
       <c r="AX96" s="3"/>
       <c r="AY96" s="3"/>
     </row>
-    <row r="97" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -5920,7 +5935,7 @@
       <c r="AX97" s="3"/>
       <c r="AY97" s="3"/>
     </row>
-    <row r="98" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -5971,7 +5986,7 @@
       <c r="AX98" s="3"/>
       <c r="AY98" s="3"/>
     </row>
-    <row r="99" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -6022,7 +6037,7 @@
       <c r="AX99" s="3"/>
       <c r="AY99" s="3"/>
     </row>
-    <row r="100" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -6073,7 +6088,7 @@
       <c r="AX100" s="3"/>
       <c r="AY100" s="3"/>
     </row>
-    <row r="101" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -6124,7 +6139,7 @@
       <c r="AX101" s="3"/>
       <c r="AY101" s="3"/>
     </row>
-    <row r="102" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -6175,7 +6190,7 @@
       <c r="AX102" s="3"/>
       <c r="AY102" s="3"/>
     </row>
-    <row r="103" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -6226,7 +6241,7 @@
       <c r="AX103" s="3"/>
       <c r="AY103" s="3"/>
     </row>
-    <row r="104" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -6277,7 +6292,7 @@
       <c r="AX104" s="3"/>
       <c r="AY104" s="3"/>
     </row>
-    <row r="105" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -6328,7 +6343,7 @@
       <c r="AX105" s="3"/>
       <c r="AY105" s="3"/>
     </row>
-    <row r="106" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -6379,7 +6394,7 @@
       <c r="AX106" s="3"/>
       <c r="AY106" s="3"/>
     </row>
-    <row r="107" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -6430,7 +6445,7 @@
       <c r="AX107" s="3"/>
       <c r="AY107" s="3"/>
     </row>
-    <row r="108" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -6481,7 +6496,7 @@
       <c r="AX108" s="3"/>
       <c r="AY108" s="3"/>
     </row>
-    <row r="109" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -6532,7 +6547,7 @@
       <c r="AX109" s="3"/>
       <c r="AY109" s="3"/>
     </row>
-    <row r="110" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -6583,7 +6598,7 @@
       <c r="AX110" s="3"/>
       <c r="AY110" s="3"/>
     </row>
-    <row r="111" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -6634,7 +6649,7 @@
       <c r="AX111" s="3"/>
       <c r="AY111" s="3"/>
     </row>
-    <row r="112" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -6685,7 +6700,7 @@
       <c r="AX112" s="3"/>
       <c r="AY112" s="3"/>
     </row>
-    <row r="113" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -6736,7 +6751,7 @@
       <c r="AX113" s="3"/>
       <c r="AY113" s="3"/>
     </row>
-    <row r="114" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -6787,7 +6802,7 @@
       <c r="AX114" s="3"/>
       <c r="AY114" s="3"/>
     </row>
-    <row r="115" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -6838,7 +6853,7 @@
       <c r="AX115" s="3"/>
       <c r="AY115" s="3"/>
     </row>
-    <row r="116" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -6889,7 +6904,7 @@
       <c r="AX116" s="3"/>
       <c r="AY116" s="3"/>
     </row>
-    <row r="117" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -6940,7 +6955,7 @@
       <c r="AX117" s="3"/>
       <c r="AY117" s="3"/>
     </row>
-    <row r="118" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -6991,7 +7006,7 @@
       <c r="AX118" s="3"/>
       <c r="AY118" s="3"/>
     </row>
-    <row r="119" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -7042,7 +7057,7 @@
       <c r="AX119" s="3"/>
       <c r="AY119" s="3"/>
     </row>
-    <row r="120" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -7093,7 +7108,7 @@
       <c r="AX120" s="3"/>
       <c r="AY120" s="3"/>
     </row>
-    <row r="121" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -7144,7 +7159,7 @@
       <c r="AX121" s="3"/>
       <c r="AY121" s="3"/>
     </row>
-    <row r="122" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -7195,7 +7210,7 @@
       <c r="AX122" s="3"/>
       <c r="AY122" s="3"/>
     </row>
-    <row r="123" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -7246,7 +7261,7 @@
       <c r="AX123" s="3"/>
       <c r="AY123" s="3"/>
     </row>
-    <row r="124" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -7297,7 +7312,7 @@
       <c r="AX124" s="3"/>
       <c r="AY124" s="3"/>
     </row>
-    <row r="125" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -7348,7 +7363,7 @@
       <c r="AX125" s="3"/>
       <c r="AY125" s="3"/>
     </row>
-    <row r="126" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -7399,7 +7414,7 @@
       <c r="AX126" s="3"/>
       <c r="AY126" s="3"/>
     </row>
-    <row r="127" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -7450,7 +7465,7 @@
       <c r="AX127" s="3"/>
       <c r="AY127" s="3"/>
     </row>
-    <row r="128" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -7501,7 +7516,7 @@
       <c r="AX128" s="3"/>
       <c r="AY128" s="3"/>
     </row>
-    <row r="129" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -7552,7 +7567,7 @@
       <c r="AX129" s="3"/>
       <c r="AY129" s="3"/>
     </row>
-    <row r="130" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -7603,7 +7618,7 @@
       <c r="AX130" s="3"/>
       <c r="AY130" s="3"/>
     </row>
-    <row r="131" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -7654,7 +7669,7 @@
       <c r="AX131" s="3"/>
       <c r="AY131" s="3"/>
     </row>
-    <row r="132" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -7705,7 +7720,7 @@
       <c r="AX132" s="3"/>
       <c r="AY132" s="3"/>
     </row>
-    <row r="133" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -7756,7 +7771,7 @@
       <c r="AX133" s="3"/>
       <c r="AY133" s="3"/>
     </row>
-    <row r="134" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -7807,7 +7822,7 @@
       <c r="AX134" s="3"/>
       <c r="AY134" s="3"/>
     </row>
-    <row r="135" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -7858,7 +7873,7 @@
       <c r="AX135" s="3"/>
       <c r="AY135" s="3"/>
     </row>
-    <row r="136" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -7909,7 +7924,7 @@
       <c r="AX136" s="3"/>
       <c r="AY136" s="3"/>
     </row>
-    <row r="137" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -7960,7 +7975,7 @@
       <c r="AX137" s="3"/>
       <c r="AY137" s="3"/>
     </row>
-    <row r="138" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -8011,7 +8026,7 @@
       <c r="AX138" s="3"/>
       <c r="AY138" s="3"/>
     </row>
-    <row r="139" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -8062,7 +8077,7 @@
       <c r="AX139" s="3"/>
       <c r="AY139" s="3"/>
     </row>
-    <row r="140" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -8113,7 +8128,7 @@
       <c r="AX140" s="3"/>
       <c r="AY140" s="3"/>
     </row>
-    <row r="141" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -8164,7 +8179,7 @@
       <c r="AX141" s="3"/>
       <c r="AY141" s="3"/>
     </row>
-    <row r="142" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -8215,7 +8230,7 @@
       <c r="AX142" s="3"/>
       <c r="AY142" s="3"/>
     </row>
-    <row r="143" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -8266,7 +8281,7 @@
       <c r="AX143" s="3"/>
       <c r="AY143" s="3"/>
     </row>
-    <row r="144" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -8317,7 +8332,7 @@
       <c r="AX144" s="3"/>
       <c r="AY144" s="3"/>
     </row>
-    <row r="145" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -8368,7 +8383,7 @@
       <c r="AX145" s="3"/>
       <c r="AY145" s="3"/>
     </row>
-    <row r="146" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -8419,7 +8434,7 @@
       <c r="AX146" s="3"/>
       <c r="AY146" s="3"/>
     </row>
-    <row r="147" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -8470,7 +8485,7 @@
       <c r="AX147" s="3"/>
       <c r="AY147" s="3"/>
     </row>
-    <row r="148" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -8521,7 +8536,7 @@
       <c r="AX148" s="3"/>
       <c r="AY148" s="3"/>
     </row>
-    <row r="149" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -8572,7 +8587,7 @@
       <c r="AX149" s="3"/>
       <c r="AY149" s="3"/>
     </row>
-    <row r="150" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -8623,7 +8638,7 @@
       <c r="AX150" s="3"/>
       <c r="AY150" s="3"/>
     </row>
-    <row r="151" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -8674,7 +8689,7 @@
       <c r="AX151" s="3"/>
       <c r="AY151" s="3"/>
     </row>
-    <row r="152" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -8725,7 +8740,7 @@
       <c r="AX152" s="3"/>
       <c r="AY152" s="3"/>
     </row>
-    <row r="153" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -8776,7 +8791,7 @@
       <c r="AX153" s="3"/>
       <c r="AY153" s="3"/>
     </row>
-    <row r="154" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -8827,7 +8842,7 @@
       <c r="AX154" s="3"/>
       <c r="AY154" s="3"/>
     </row>
-    <row r="155" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -8878,7 +8893,7 @@
       <c r="AX155" s="3"/>
       <c r="AY155" s="3"/>
     </row>
-    <row r="156" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -8929,7 +8944,7 @@
       <c r="AX156" s="3"/>
       <c r="AY156" s="3"/>
     </row>
-    <row r="157" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -8980,7 +8995,7 @@
       <c r="AX157" s="3"/>
       <c r="AY157" s="3"/>
     </row>
-    <row r="158" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -9031,7 +9046,7 @@
       <c r="AX158" s="3"/>
       <c r="AY158" s="3"/>
     </row>
-    <row r="159" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -9082,7 +9097,7 @@
       <c r="AX159" s="3"/>
       <c r="AY159" s="3"/>
     </row>
-    <row r="160" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -9133,7 +9148,7 @@
       <c r="AX160" s="3"/>
       <c r="AY160" s="3"/>
     </row>
-    <row r="161" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -9184,7 +9199,7 @@
       <c r="AX161" s="3"/>
       <c r="AY161" s="3"/>
     </row>
-    <row r="162" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -9235,7 +9250,7 @@
       <c r="AX162" s="3"/>
       <c r="AY162" s="3"/>
     </row>
-    <row r="163" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -9286,7 +9301,7 @@
       <c r="AX163" s="3"/>
       <c r="AY163" s="3"/>
     </row>
-    <row r="164" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -9337,7 +9352,7 @@
       <c r="AX164" s="3"/>
       <c r="AY164" s="3"/>
     </row>
-    <row r="165" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -9388,7 +9403,7 @@
       <c r="AX165" s="3"/>
       <c r="AY165" s="3"/>
     </row>
-    <row r="166" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -9439,7 +9454,7 @@
       <c r="AX166" s="3"/>
       <c r="AY166" s="3"/>
     </row>
-    <row r="167" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -9490,7 +9505,7 @@
       <c r="AX167" s="3"/>
       <c r="AY167" s="3"/>
     </row>
-    <row r="168" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -9541,7 +9556,7 @@
       <c r="AX168" s="3"/>
       <c r="AY168" s="3"/>
     </row>
-    <row r="169" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -9592,7 +9607,7 @@
       <c r="AX169" s="3"/>
       <c r="AY169" s="3"/>
     </row>
-    <row r="170" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -9643,7 +9658,7 @@
       <c r="AX170" s="3"/>
       <c r="AY170" s="3"/>
     </row>
-    <row r="171" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -9694,7 +9709,7 @@
       <c r="AX171" s="3"/>
       <c r="AY171" s="3"/>
     </row>
-    <row r="172" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -9745,7 +9760,7 @@
       <c r="AX172" s="3"/>
       <c r="AY172" s="3"/>
     </row>
-    <row r="173" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -9796,7 +9811,7 @@
       <c r="AX173" s="3"/>
       <c r="AY173" s="3"/>
     </row>
-    <row r="174" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -9847,7 +9862,7 @@
       <c r="AX174" s="3"/>
       <c r="AY174" s="3"/>
     </row>
-    <row r="175" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -9898,7 +9913,7 @@
       <c r="AX175" s="3"/>
       <c r="AY175" s="3"/>
     </row>
-    <row r="176" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -9949,7 +9964,7 @@
       <c r="AX176" s="3"/>
       <c r="AY176" s="3"/>
     </row>
-    <row r="177" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -10000,7 +10015,7 @@
       <c r="AX177" s="3"/>
       <c r="AY177" s="3"/>
     </row>
-    <row r="178" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -10051,7 +10066,7 @@
       <c r="AX178" s="3"/>
       <c r="AY178" s="3"/>
     </row>
-    <row r="179" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -10102,7 +10117,7 @@
       <c r="AX179" s="3"/>
       <c r="AY179" s="3"/>
     </row>
-    <row r="180" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -10153,7 +10168,7 @@
       <c r="AX180" s="3"/>
       <c r="AY180" s="3"/>
     </row>
-    <row r="181" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -10204,7 +10219,7 @@
       <c r="AX181" s="3"/>
       <c r="AY181" s="3"/>
     </row>
-    <row r="182" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -10255,7 +10270,7 @@
       <c r="AX182" s="3"/>
       <c r="AY182" s="3"/>
     </row>
-    <row r="183" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -10306,7 +10321,7 @@
       <c r="AX183" s="3"/>
       <c r="AY183" s="3"/>
     </row>
-    <row r="184" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -10357,7 +10372,7 @@
       <c r="AX184" s="3"/>
       <c r="AY184" s="3"/>
     </row>
-    <row r="185" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -10408,7 +10423,7 @@
       <c r="AX185" s="3"/>
       <c r="AY185" s="3"/>
     </row>
-    <row r="186" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -10459,7 +10474,7 @@
       <c r="AX186" s="3"/>
       <c r="AY186" s="3"/>
     </row>
-    <row r="187" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -10510,7 +10525,7 @@
       <c r="AX187" s="3"/>
       <c r="AY187" s="3"/>
     </row>
-    <row r="188" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -10561,7 +10576,7 @@
       <c r="AX188" s="3"/>
       <c r="AY188" s="3"/>
     </row>
-    <row r="189" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -10612,7 +10627,7 @@
       <c r="AX189" s="3"/>
       <c r="AY189" s="3"/>
     </row>
-    <row r="190" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -10663,7 +10678,7 @@
       <c r="AX190" s="3"/>
       <c r="AY190" s="3"/>
     </row>
-    <row r="191" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -10714,7 +10729,7 @@
       <c r="AX191" s="3"/>
       <c r="AY191" s="3"/>
     </row>
-    <row r="192" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -10765,7 +10780,7 @@
       <c r="AX192" s="3"/>
       <c r="AY192" s="3"/>
     </row>
-    <row r="193" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -10816,7 +10831,7 @@
       <c r="AX193" s="3"/>
       <c r="AY193" s="3"/>
     </row>
-    <row r="194" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -10867,7 +10882,7 @@
       <c r="AX194" s="3"/>
       <c r="AY194" s="3"/>
     </row>
-    <row r="195" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -10918,7 +10933,7 @@
       <c r="AX195" s="3"/>
       <c r="AY195" s="3"/>
     </row>
-    <row r="196" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -10969,7 +10984,7 @@
       <c r="AX196" s="3"/>
       <c r="AY196" s="3"/>
     </row>
-    <row r="197" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -11020,7 +11035,7 @@
       <c r="AX197" s="3"/>
       <c r="AY197" s="3"/>
     </row>
-    <row r="198" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -11071,7 +11086,7 @@
       <c r="AX198" s="3"/>
       <c r="AY198" s="3"/>
     </row>
-    <row r="199" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -11122,7 +11137,7 @@
       <c r="AX199" s="3"/>
       <c r="AY199" s="3"/>
     </row>
-    <row r="200" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -11173,7 +11188,7 @@
       <c r="AX200" s="3"/>
       <c r="AY200" s="3"/>
     </row>
-    <row r="201" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -11224,7 +11239,7 @@
       <c r="AX201" s="3"/>
       <c r="AY201" s="3"/>
     </row>
-    <row r="202" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -11275,7 +11290,7 @@
       <c r="AX202" s="3"/>
       <c r="AY202" s="3"/>
     </row>
-    <row r="203" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -11326,7 +11341,7 @@
       <c r="AX203" s="3"/>
       <c r="AY203" s="3"/>
     </row>
-    <row r="204" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -11377,7 +11392,7 @@
       <c r="AX204" s="3"/>
       <c r="AY204" s="3"/>
     </row>
-    <row r="205" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -11428,7 +11443,7 @@
       <c r="AX205" s="3"/>
       <c r="AY205" s="3"/>
     </row>
-    <row r="206" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -11479,7 +11494,7 @@
       <c r="AX206" s="3"/>
       <c r="AY206" s="3"/>
     </row>
-    <row r="207" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -11530,7 +11545,7 @@
       <c r="AX207" s="3"/>
       <c r="AY207" s="3"/>
     </row>
-    <row r="208" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -11581,7 +11596,7 @@
       <c r="AX208" s="3"/>
       <c r="AY208" s="3"/>
     </row>
-    <row r="209" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -11632,7 +11647,7 @@
       <c r="AX209" s="3"/>
       <c r="AY209" s="3"/>
     </row>
-    <row r="210" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -11683,7 +11698,7 @@
       <c r="AX210" s="3"/>
       <c r="AY210" s="3"/>
     </row>
-    <row r="211" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -11734,7 +11749,7 @@
       <c r="AX211" s="3"/>
       <c r="AY211" s="3"/>
     </row>
-    <row r="212" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -11785,7 +11800,7 @@
       <c r="AX212" s="3"/>
       <c r="AY212" s="3"/>
     </row>
-    <row r="213" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -11836,7 +11851,7 @@
       <c r="AX213" s="3"/>
       <c r="AY213" s="3"/>
     </row>
-    <row r="214" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -11887,7 +11902,7 @@
       <c r="AX214" s="3"/>
       <c r="AY214" s="3"/>
     </row>
-    <row r="215" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -11938,7 +11953,7 @@
       <c r="AX215" s="3"/>
       <c r="AY215" s="3"/>
     </row>
-    <row r="216" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -11989,7 +12004,7 @@
       <c r="AX216" s="3"/>
       <c r="AY216" s="3"/>
     </row>
-    <row r="217" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -12040,7 +12055,7 @@
       <c r="AX217" s="3"/>
       <c r="AY217" s="3"/>
     </row>
-    <row r="218" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -12091,7 +12106,7 @@
       <c r="AX218" s="3"/>
       <c r="AY218" s="3"/>
     </row>
-    <row r="219" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -12142,7 +12157,7 @@
       <c r="AX219" s="3"/>
       <c r="AY219" s="3"/>
     </row>
-    <row r="220" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -12193,7 +12208,7 @@
       <c r="AX220" s="3"/>
       <c r="AY220" s="3"/>
     </row>
-    <row r="221" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -12244,7 +12259,7 @@
       <c r="AX221" s="3"/>
       <c r="AY221" s="3"/>
     </row>
-    <row r="222" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -12295,7 +12310,7 @@
       <c r="AX222" s="3"/>
       <c r="AY222" s="3"/>
     </row>
-    <row r="223" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -12346,7 +12361,7 @@
       <c r="AX223" s="3"/>
       <c r="AY223" s="3"/>
     </row>
-    <row r="224" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -12397,7 +12412,7 @@
       <c r="AX224" s="3"/>
       <c r="AY224" s="3"/>
     </row>
-    <row r="225" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -12448,7 +12463,7 @@
       <c r="AX225" s="3"/>
       <c r="AY225" s="3"/>
     </row>
-    <row r="226" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -12499,7 +12514,7 @@
       <c r="AX226" s="3"/>
       <c r="AY226" s="3"/>
     </row>
-    <row r="227" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -12550,7 +12565,7 @@
       <c r="AX227" s="3"/>
       <c r="AY227" s="3"/>
     </row>
-    <row r="228" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -12601,7 +12616,7 @@
       <c r="AX228" s="3"/>
       <c r="AY228" s="3"/>
     </row>
-    <row r="229" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -12652,7 +12667,7 @@
       <c r="AX229" s="3"/>
       <c r="AY229" s="3"/>
     </row>
-    <row r="230" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -12703,7 +12718,7 @@
       <c r="AX230" s="3"/>
       <c r="AY230" s="3"/>
     </row>
-    <row r="231" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -12754,7 +12769,7 @@
       <c r="AX231" s="3"/>
       <c r="AY231" s="3"/>
     </row>
-    <row r="232" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -12805,7 +12820,7 @@
       <c r="AX232" s="3"/>
       <c r="AY232" s="3"/>
     </row>
-    <row r="233" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -12856,7 +12871,7 @@
       <c r="AX233" s="3"/>
       <c r="AY233" s="3"/>
     </row>
-    <row r="234" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -12907,7 +12922,7 @@
       <c r="AX234" s="3"/>
       <c r="AY234" s="3"/>
     </row>
-    <row r="235" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -12958,7 +12973,7 @@
       <c r="AX235" s="3"/>
       <c r="AY235" s="3"/>
     </row>
-    <row r="236" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -13009,7 +13024,7 @@
       <c r="AX236" s="3"/>
       <c r="AY236" s="3"/>
     </row>
-    <row r="237" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -13060,7 +13075,7 @@
       <c r="AX237" s="3"/>
       <c r="AY237" s="3"/>
     </row>
-    <row r="238" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -13111,7 +13126,7 @@
       <c r="AX238" s="3"/>
       <c r="AY238" s="3"/>
     </row>
-    <row r="239" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -13162,7 +13177,7 @@
       <c r="AX239" s="3"/>
       <c r="AY239" s="3"/>
     </row>
-    <row r="240" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -13213,7 +13228,7 @@
       <c r="AX240" s="3"/>
       <c r="AY240" s="3"/>
     </row>
-    <row r="241" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -13264,7 +13279,7 @@
       <c r="AX241" s="3"/>
       <c r="AY241" s="3"/>
     </row>
-    <row r="242" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -13315,7 +13330,7 @@
       <c r="AX242" s="3"/>
       <c r="AY242" s="3"/>
     </row>
-    <row r="243" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -13366,7 +13381,7 @@
       <c r="AX243" s="3"/>
       <c r="AY243" s="3"/>
     </row>
-    <row r="244" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -13417,7 +13432,7 @@
       <c r="AX244" s="3"/>
       <c r="AY244" s="3"/>
     </row>
-    <row r="245" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -13468,7 +13483,7 @@
       <c r="AX245" s="3"/>
       <c r="AY245" s="3"/>
     </row>
-    <row r="246" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -13519,7 +13534,7 @@
       <c r="AX246" s="3"/>
       <c r="AY246" s="3"/>
     </row>
-    <row r="247" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -13570,7 +13585,7 @@
       <c r="AX247" s="3"/>
       <c r="AY247" s="3"/>
     </row>
-    <row r="248" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -13621,7 +13636,7 @@
       <c r="AX248" s="3"/>
       <c r="AY248" s="3"/>
     </row>
-    <row r="249" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -13672,7 +13687,7 @@
       <c r="AX249" s="3"/>
       <c r="AY249" s="3"/>
     </row>
-    <row r="250" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -13723,7 +13738,7 @@
       <c r="AX250" s="3"/>
       <c r="AY250" s="3"/>
     </row>
-    <row r="251" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -13774,7 +13789,7 @@
       <c r="AX251" s="3"/>
       <c r="AY251" s="3"/>
     </row>
-    <row r="252" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -13825,7 +13840,7 @@
       <c r="AX252" s="3"/>
       <c r="AY252" s="3"/>
     </row>
-    <row r="253" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -13876,7 +13891,7 @@
       <c r="AX253" s="3"/>
       <c r="AY253" s="3"/>
     </row>
-    <row r="254" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -13927,7 +13942,7 @@
       <c r="AX254" s="3"/>
       <c r="AY254" s="3"/>
     </row>
-    <row r="255" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -13978,7 +13993,7 @@
       <c r="AX255" s="3"/>
       <c r="AY255" s="3"/>
     </row>
-    <row r="256" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -14029,7 +14044,7 @@
       <c r="AX256" s="3"/>
       <c r="AY256" s="3"/>
     </row>
-    <row r="257" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -14080,7 +14095,7 @@
       <c r="AX257" s="3"/>
       <c r="AY257" s="3"/>
     </row>
-    <row r="258" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -14131,7 +14146,7 @@
       <c r="AX258" s="3"/>
       <c r="AY258" s="3"/>
     </row>
-    <row r="259" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -14182,7 +14197,7 @@
       <c r="AX259" s="3"/>
       <c r="AY259" s="3"/>
     </row>
-    <row r="260" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -14233,7 +14248,7 @@
       <c r="AX260" s="3"/>
       <c r="AY260" s="3"/>
     </row>
-    <row r="261" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -14284,7 +14299,7 @@
       <c r="AX261" s="3"/>
       <c r="AY261" s="3"/>
     </row>
-    <row r="262" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -14335,7 +14350,7 @@
       <c r="AX262" s="3"/>
       <c r="AY262" s="3"/>
     </row>
-    <row r="263" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -14386,7 +14401,7 @@
       <c r="AX263" s="3"/>
       <c r="AY263" s="3"/>
     </row>
-    <row r="264" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -14437,7 +14452,7 @@
       <c r="AX264" s="3"/>
       <c r="AY264" s="3"/>
     </row>
-    <row r="265" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -14488,7 +14503,7 @@
       <c r="AX265" s="3"/>
       <c r="AY265" s="3"/>
     </row>
-    <row r="266" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -14539,7 +14554,7 @@
       <c r="AX266" s="3"/>
       <c r="AY266" s="3"/>
     </row>
-    <row r="267" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -14590,7 +14605,7 @@
       <c r="AX267" s="3"/>
       <c r="AY267" s="3"/>
     </row>
-    <row r="268" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -14641,7 +14656,7 @@
       <c r="AX268" s="3"/>
       <c r="AY268" s="3"/>
     </row>
-    <row r="269" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -14692,7 +14707,7 @@
       <c r="AX269" s="3"/>
       <c r="AY269" s="3"/>
     </row>
-    <row r="270" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -14743,7 +14758,7 @@
       <c r="AX270" s="3"/>
       <c r="AY270" s="3"/>
     </row>
-    <row r="271" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -14794,7 +14809,7 @@
       <c r="AX271" s="3"/>
       <c r="AY271" s="3"/>
     </row>
-    <row r="272" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -14845,7 +14860,7 @@
       <c r="AX272" s="3"/>
       <c r="AY272" s="3"/>
     </row>
-    <row r="273" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -14896,7 +14911,7 @@
       <c r="AX273" s="3"/>
       <c r="AY273" s="3"/>
     </row>
-    <row r="274" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -14947,7 +14962,7 @@
       <c r="AX274" s="3"/>
       <c r="AY274" s="3"/>
     </row>
-    <row r="275" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -14998,7 +15013,7 @@
       <c r="AX275" s="3"/>
       <c r="AY275" s="3"/>
     </row>
-    <row r="276" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -15049,7 +15064,7 @@
       <c r="AX276" s="3"/>
       <c r="AY276" s="3"/>
     </row>
-    <row r="277" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -15100,7 +15115,7 @@
       <c r="AX277" s="3"/>
       <c r="AY277" s="3"/>
     </row>
-    <row r="278" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -15151,7 +15166,7 @@
       <c r="AX278" s="3"/>
       <c r="AY278" s="3"/>
     </row>
-    <row r="279" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -15202,7 +15217,7 @@
       <c r="AX279" s="3"/>
       <c r="AY279" s="3"/>
     </row>
-    <row r="280" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -15253,7 +15268,7 @@
       <c r="AX280" s="3"/>
       <c r="AY280" s="3"/>
     </row>
-    <row r="281" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -15304,7 +15319,7 @@
       <c r="AX281" s="3"/>
       <c r="AY281" s="3"/>
     </row>
-    <row r="282" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -15355,7 +15370,7 @@
       <c r="AX282" s="3"/>
       <c r="AY282" s="3"/>
     </row>
-    <row r="283" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -15406,7 +15421,7 @@
       <c r="AX283" s="3"/>
       <c r="AY283" s="3"/>
     </row>
-    <row r="284" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -15457,7 +15472,7 @@
       <c r="AX284" s="3"/>
       <c r="AY284" s="3"/>
     </row>
-    <row r="285" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -15508,7 +15523,7 @@
       <c r="AX285" s="3"/>
       <c r="AY285" s="3"/>
     </row>
-    <row r="286" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -15559,7 +15574,7 @@
       <c r="AX286" s="3"/>
       <c r="AY286" s="3"/>
     </row>
-    <row r="287" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -15610,7 +15625,7 @@
       <c r="AX287" s="3"/>
       <c r="AY287" s="3"/>
     </row>
-    <row r="288" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -15661,7 +15676,7 @@
       <c r="AX288" s="3"/>
       <c r="AY288" s="3"/>
     </row>
-    <row r="289" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -15712,7 +15727,7 @@
       <c r="AX289" s="3"/>
       <c r="AY289" s="3"/>
     </row>
-    <row r="290" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -15763,7 +15778,7 @@
       <c r="AX290" s="3"/>
       <c r="AY290" s="3"/>
     </row>
-    <row r="291" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -15814,7 +15829,7 @@
       <c r="AX291" s="3"/>
       <c r="AY291" s="3"/>
     </row>
-    <row r="292" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -15865,7 +15880,7 @@
       <c r="AX292" s="3"/>
       <c r="AY292" s="3"/>
     </row>
-    <row r="293" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -15916,7 +15931,7 @@
       <c r="AX293" s="3"/>
       <c r="AY293" s="3"/>
     </row>
-    <row r="294" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -15967,7 +15982,7 @@
       <c r="AX294" s="3"/>
       <c r="AY294" s="3"/>
     </row>
-    <row r="295" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -16018,7 +16033,7 @@
       <c r="AX295" s="3"/>
       <c r="AY295" s="3"/>
     </row>
-    <row r="296" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -16069,7 +16084,7 @@
       <c r="AX296" s="3"/>
       <c r="AY296" s="3"/>
     </row>
-    <row r="297" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -16120,7 +16135,7 @@
       <c r="AX297" s="3"/>
       <c r="AY297" s="3"/>
     </row>
-    <row r="298" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -16171,7 +16186,7 @@
       <c r="AX298" s="3"/>
       <c r="AY298" s="3"/>
     </row>
-    <row r="299" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -16222,7 +16237,7 @@
       <c r="AX299" s="3"/>
       <c r="AY299" s="3"/>
     </row>
-    <row r="300" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -16273,7 +16288,7 @@
       <c r="AX300" s="3"/>
       <c r="AY300" s="3"/>
     </row>
-    <row r="301" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -16324,7 +16339,7 @@
       <c r="AX301" s="3"/>
       <c r="AY301" s="3"/>
     </row>
-    <row r="302" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -16375,7 +16390,7 @@
       <c r="AX302" s="3"/>
       <c r="AY302" s="3"/>
     </row>
-    <row r="303" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -16426,7 +16441,7 @@
       <c r="AX303" s="3"/>
       <c r="AY303" s="3"/>
     </row>
-    <row r="304" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -16477,7 +16492,7 @@
       <c r="AX304" s="3"/>
       <c r="AY304" s="3"/>
     </row>
-    <row r="305" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -16528,7 +16543,7 @@
       <c r="AX305" s="3"/>
       <c r="AY305" s="3"/>
     </row>
-    <row r="306" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -16579,7 +16594,7 @@
       <c r="AX306" s="3"/>
       <c r="AY306" s="3"/>
     </row>
-    <row r="307" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -16630,7 +16645,7 @@
       <c r="AX307" s="3"/>
       <c r="AY307" s="3"/>
     </row>
-    <row r="308" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -16681,7 +16696,7 @@
       <c r="AX308" s="3"/>
       <c r="AY308" s="3"/>
     </row>
-    <row r="309" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -16732,7 +16747,7 @@
       <c r="AX309" s="3"/>
       <c r="AY309" s="3"/>
     </row>
-    <row r="310" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -16783,7 +16798,7 @@
       <c r="AX310" s="3"/>
       <c r="AY310" s="3"/>
     </row>
-    <row r="311" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -16834,7 +16849,7 @@
       <c r="AX311" s="3"/>
       <c r="AY311" s="3"/>
     </row>
-    <row r="312" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -16885,7 +16900,7 @@
       <c r="AX312" s="3"/>
       <c r="AY312" s="3"/>
     </row>
-    <row r="313" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -16936,7 +16951,7 @@
       <c r="AX313" s="3"/>
       <c r="AY313" s="3"/>
     </row>
-    <row r="314" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -16987,7 +17002,7 @@
       <c r="AX314" s="3"/>
       <c r="AY314" s="3"/>
     </row>
-    <row r="315" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -17038,7 +17053,7 @@
       <c r="AX315" s="3"/>
       <c r="AY315" s="3"/>
     </row>
-    <row r="316" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -17089,7 +17104,7 @@
       <c r="AX316" s="3"/>
       <c r="AY316" s="3"/>
     </row>
-    <row r="317" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -17140,7 +17155,7 @@
       <c r="AX317" s="3"/>
       <c r="AY317" s="3"/>
     </row>
-    <row r="318" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -17191,7 +17206,7 @@
       <c r="AX318" s="3"/>
       <c r="AY318" s="3"/>
     </row>
-    <row r="319" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -17242,7 +17257,7 @@
       <c r="AX319" s="3"/>
       <c r="AY319" s="3"/>
     </row>
-    <row r="320" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -17293,7 +17308,7 @@
       <c r="AX320" s="3"/>
       <c r="AY320" s="3"/>
     </row>
-    <row r="321" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -17344,7 +17359,7 @@
       <c r="AX321" s="3"/>
       <c r="AY321" s="3"/>
     </row>
-    <row r="322" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -17395,7 +17410,7 @@
       <c r="AX322" s="3"/>
       <c r="AY322" s="3"/>
     </row>
-    <row r="323" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -17446,7 +17461,7 @@
       <c r="AX323" s="3"/>
       <c r="AY323" s="3"/>
     </row>
-    <row r="324" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -17497,7 +17512,7 @@
       <c r="AX324" s="3"/>
       <c r="AY324" s="3"/>
     </row>
-    <row r="325" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -17548,7 +17563,7 @@
       <c r="AX325" s="3"/>
       <c r="AY325" s="3"/>
     </row>
-    <row r="326" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -17599,7 +17614,7 @@
       <c r="AX326" s="3"/>
       <c r="AY326" s="3"/>
     </row>
-    <row r="327" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -17650,7 +17665,7 @@
       <c r="AX327" s="3"/>
       <c r="AY327" s="3"/>
     </row>
-    <row r="328" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -17701,7 +17716,7 @@
       <c r="AX328" s="3"/>
       <c r="AY328" s="3"/>
     </row>
-    <row r="329" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -17752,7 +17767,7 @@
       <c r="AX329" s="3"/>
       <c r="AY329" s="3"/>
     </row>
-    <row r="330" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -17803,7 +17818,7 @@
       <c r="AX330" s="3"/>
       <c r="AY330" s="3"/>
     </row>
-    <row r="331" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -17854,7 +17869,7 @@
       <c r="AX331" s="3"/>
       <c r="AY331" s="3"/>
     </row>
-    <row r="332" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -17905,7 +17920,7 @@
       <c r="AX332" s="3"/>
       <c r="AY332" s="3"/>
     </row>
-    <row r="333" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -17956,7 +17971,7 @@
       <c r="AX333" s="3"/>
       <c r="AY333" s="3"/>
     </row>
-    <row r="334" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -18007,7 +18022,7 @@
       <c r="AX334" s="3"/>
       <c r="AY334" s="3"/>
     </row>
-    <row r="335" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -18058,7 +18073,7 @@
       <c r="AX335" s="3"/>
       <c r="AY335" s="3"/>
     </row>
-    <row r="336" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -18109,7 +18124,7 @@
       <c r="AX336" s="3"/>
       <c r="AY336" s="3"/>
     </row>
-    <row r="337" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -18160,7 +18175,7 @@
       <c r="AX337" s="3"/>
       <c r="AY337" s="3"/>
     </row>
-    <row r="338" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -18211,7 +18226,7 @@
       <c r="AX338" s="3"/>
       <c r="AY338" s="3"/>
     </row>
-    <row r="339" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -18262,7 +18277,7 @@
       <c r="AX339" s="3"/>
       <c r="AY339" s="3"/>
     </row>
-    <row r="340" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -18313,7 +18328,7 @@
       <c r="AX340" s="3"/>
       <c r="AY340" s="3"/>
     </row>
-    <row r="341" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -18364,7 +18379,7 @@
       <c r="AX341" s="3"/>
       <c r="AY341" s="3"/>
     </row>
-    <row r="342" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -18415,7 +18430,7 @@
       <c r="AX342" s="3"/>
       <c r="AY342" s="3"/>
     </row>
-    <row r="343" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -18466,7 +18481,7 @@
       <c r="AX343" s="3"/>
       <c r="AY343" s="3"/>
     </row>
-    <row r="344" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -18517,7 +18532,7 @@
       <c r="AX344" s="3"/>
       <c r="AY344" s="3"/>
     </row>
-    <row r="345" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -18568,7 +18583,7 @@
       <c r="AX345" s="3"/>
       <c r="AY345" s="3"/>
     </row>
-    <row r="346" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -18619,7 +18634,7 @@
       <c r="AX346" s="3"/>
       <c r="AY346" s="3"/>
     </row>
-    <row r="347" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -18670,7 +18685,7 @@
       <c r="AX347" s="3"/>
       <c r="AY347" s="3"/>
     </row>
-    <row r="348" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -18721,7 +18736,7 @@
       <c r="AX348" s="3"/>
       <c r="AY348" s="3"/>
     </row>
-    <row r="349" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -18772,7 +18787,7 @@
       <c r="AX349" s="3"/>
       <c r="AY349" s="3"/>
     </row>
-    <row r="350" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -18823,7 +18838,7 @@
       <c r="AX350" s="3"/>
       <c r="AY350" s="3"/>
     </row>
-    <row r="351" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -18874,7 +18889,7 @@
       <c r="AX351" s="3"/>
       <c r="AY351" s="3"/>
     </row>
-    <row r="352" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -18925,7 +18940,7 @@
       <c r="AX352" s="3"/>
       <c r="AY352" s="3"/>
     </row>
-    <row r="353" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -18976,7 +18991,7 @@
       <c r="AX353" s="3"/>
       <c r="AY353" s="3"/>
     </row>
-    <row r="354" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -19027,7 +19042,7 @@
       <c r="AX354" s="3"/>
       <c r="AY354" s="3"/>
     </row>
-    <row r="355" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -19078,7 +19093,7 @@
       <c r="AX355" s="3"/>
       <c r="AY355" s="3"/>
     </row>
-    <row r="356" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -19129,7 +19144,7 @@
       <c r="AX356" s="3"/>
       <c r="AY356" s="3"/>
     </row>
-    <row r="357" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -19180,7 +19195,7 @@
       <c r="AX357" s="3"/>
       <c r="AY357" s="3"/>
     </row>
-    <row r="358" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -19231,7 +19246,7 @@
       <c r="AX358" s="3"/>
       <c r="AY358" s="3"/>
     </row>
-    <row r="359" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -19282,7 +19297,7 @@
       <c r="AX359" s="3"/>
       <c r="AY359" s="3"/>
     </row>
-    <row r="360" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -19333,7 +19348,7 @@
       <c r="AX360" s="3"/>
       <c r="AY360" s="3"/>
     </row>
-    <row r="361" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -19384,7 +19399,7 @@
       <c r="AX361" s="3"/>
       <c r="AY361" s="3"/>
     </row>
-    <row r="362" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -19435,7 +19450,7 @@
       <c r="AX362" s="3"/>
       <c r="AY362" s="3"/>
     </row>
-    <row r="363" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -19486,7 +19501,7 @@
       <c r="AX363" s="3"/>
       <c r="AY363" s="3"/>
     </row>
-    <row r="364" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -19537,7 +19552,7 @@
       <c r="AX364" s="3"/>
       <c r="AY364" s="3"/>
     </row>
-    <row r="365" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -19588,7 +19603,7 @@
       <c r="AX365" s="3"/>
       <c r="AY365" s="3"/>
     </row>
-    <row r="366" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -19639,7 +19654,7 @@
       <c r="AX366" s="3"/>
       <c r="AY366" s="3"/>
     </row>
-    <row r="367" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -19690,7 +19705,7 @@
       <c r="AX367" s="3"/>
       <c r="AY367" s="3"/>
     </row>
-    <row r="368" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -19741,7 +19756,7 @@
       <c r="AX368" s="3"/>
       <c r="AY368" s="3"/>
     </row>
-    <row r="369" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -19792,7 +19807,7 @@
       <c r="AX369" s="3"/>
       <c r="AY369" s="3"/>
     </row>
-    <row r="370" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -19843,7 +19858,7 @@
       <c r="AX370" s="3"/>
       <c r="AY370" s="3"/>
     </row>
-    <row r="371" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -19894,7 +19909,7 @@
       <c r="AX371" s="3"/>
       <c r="AY371" s="3"/>
     </row>
-    <row r="372" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -19945,7 +19960,7 @@
       <c r="AX372" s="3"/>
       <c r="AY372" s="3"/>
     </row>
-    <row r="373" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -19996,7 +20011,7 @@
       <c r="AX373" s="3"/>
       <c r="AY373" s="3"/>
     </row>
-    <row r="374" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -20047,7 +20062,7 @@
       <c r="AX374" s="3"/>
       <c r="AY374" s="3"/>
     </row>
-    <row r="375" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -20098,7 +20113,7 @@
       <c r="AX375" s="3"/>
       <c r="AY375" s="3"/>
     </row>
-    <row r="376" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -20149,7 +20164,7 @@
       <c r="AX376" s="3"/>
       <c r="AY376" s="3"/>
     </row>
-    <row r="377" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -20200,7 +20215,7 @@
       <c r="AX377" s="3"/>
       <c r="AY377" s="3"/>
     </row>
-    <row r="378" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -20251,7 +20266,7 @@
       <c r="AX378" s="3"/>
       <c r="AY378" s="3"/>
     </row>
-    <row r="379" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -20302,7 +20317,7 @@
       <c r="AX379" s="3"/>
       <c r="AY379" s="3"/>
     </row>
-    <row r="380" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -20353,7 +20368,7 @@
       <c r="AX380" s="3"/>
       <c r="AY380" s="3"/>
     </row>
-    <row r="381" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -20404,7 +20419,7 @@
       <c r="AX381" s="3"/>
       <c r="AY381" s="3"/>
     </row>
-    <row r="382" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -20455,7 +20470,7 @@
       <c r="AX382" s="3"/>
       <c r="AY382" s="3"/>
     </row>
-    <row r="383" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -20506,7 +20521,7 @@
       <c r="AX383" s="3"/>
       <c r="AY383" s="3"/>
     </row>
-    <row r="384" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -20557,7 +20572,7 @@
       <c r="AX384" s="3"/>
       <c r="AY384" s="3"/>
     </row>
-    <row r="385" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -20608,7 +20623,7 @@
       <c r="AX385" s="3"/>
       <c r="AY385" s="3"/>
     </row>
-    <row r="386" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -20659,7 +20674,7 @@
       <c r="AX386" s="3"/>
       <c r="AY386" s="3"/>
     </row>
-    <row r="387" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -20710,7 +20725,7 @@
       <c r="AX387" s="3"/>
       <c r="AY387" s="3"/>
     </row>
-    <row r="388" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -20761,7 +20776,7 @@
       <c r="AX388" s="3"/>
       <c r="AY388" s="3"/>
     </row>
-    <row r="389" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -20812,7 +20827,7 @@
       <c r="AX389" s="3"/>
       <c r="AY389" s="3"/>
     </row>
-    <row r="390" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -20863,7 +20878,7 @@
       <c r="AX390" s="3"/>
       <c r="AY390" s="3"/>
     </row>
-    <row r="391" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -20914,7 +20929,7 @@
       <c r="AX391" s="3"/>
       <c r="AY391" s="3"/>
     </row>
-    <row r="392" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -20965,7 +20980,7 @@
       <c r="AX392" s="3"/>
       <c r="AY392" s="3"/>
     </row>
-    <row r="393" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -21016,7 +21031,7 @@
       <c r="AX393" s="3"/>
       <c r="AY393" s="3"/>
     </row>
-    <row r="394" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -21067,7 +21082,7 @@
       <c r="AX394" s="3"/>
       <c r="AY394" s="3"/>
     </row>
-    <row r="395" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -21118,7 +21133,7 @@
       <c r="AX395" s="3"/>
       <c r="AY395" s="3"/>
     </row>
-    <row r="396" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -21169,7 +21184,7 @@
       <c r="AX396" s="3"/>
       <c r="AY396" s="3"/>
     </row>
-    <row r="397" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -21220,7 +21235,7 @@
       <c r="AX397" s="3"/>
       <c r="AY397" s="3"/>
     </row>
-    <row r="398" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -21271,7 +21286,7 @@
       <c r="AX398" s="3"/>
       <c r="AY398" s="3"/>
     </row>
-    <row r="399" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -21322,7 +21337,7 @@
       <c r="AX399" s="3"/>
       <c r="AY399" s="3"/>
     </row>
-    <row r="400" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -21373,7 +21388,7 @@
       <c r="AX400" s="3"/>
       <c r="AY400" s="3"/>
     </row>
-    <row r="401" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -21424,7 +21439,7 @@
       <c r="AX401" s="3"/>
       <c r="AY401" s="3"/>
     </row>
-    <row r="402" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -21475,7 +21490,7 @@
       <c r="AX402" s="3"/>
       <c r="AY402" s="3"/>
     </row>
-    <row r="403" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -21526,7 +21541,7 @@
       <c r="AX403" s="3"/>
       <c r="AY403" s="3"/>
     </row>
-    <row r="404" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -21577,7 +21592,7 @@
       <c r="AX404" s="3"/>
       <c r="AY404" s="3"/>
     </row>
-    <row r="405" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -21628,7 +21643,7 @@
       <c r="AX405" s="3"/>
       <c r="AY405" s="3"/>
     </row>
-    <row r="406" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -21679,7 +21694,7 @@
       <c r="AX406" s="3"/>
       <c r="AY406" s="3"/>
     </row>
-    <row r="407" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -21730,7 +21745,7 @@
       <c r="AX407" s="3"/>
       <c r="AY407" s="3"/>
     </row>
-    <row r="408" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -21781,7 +21796,7 @@
       <c r="AX408" s="3"/>
       <c r="AY408" s="3"/>
     </row>
-    <row r="409" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -21832,7 +21847,7 @@
       <c r="AX409" s="3"/>
       <c r="AY409" s="3"/>
     </row>
-    <row r="410" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -21883,7 +21898,7 @@
       <c r="AX410" s="3"/>
       <c r="AY410" s="3"/>
     </row>
-    <row r="411" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -21934,7 +21949,7 @@
       <c r="AX411" s="3"/>
       <c r="AY411" s="3"/>
     </row>
-    <row r="412" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -21985,7 +22000,7 @@
       <c r="AX412" s="3"/>
       <c r="AY412" s="3"/>
     </row>
-    <row r="413" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -22036,7 +22051,7 @@
       <c r="AX413" s="3"/>
       <c r="AY413" s="3"/>
     </row>
-    <row r="414" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -22087,7 +22102,7 @@
       <c r="AX414" s="3"/>
       <c r="AY414" s="3"/>
     </row>
-    <row r="415" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -22138,7 +22153,7 @@
       <c r="AX415" s="3"/>
       <c r="AY415" s="3"/>
     </row>
-    <row r="416" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -22189,7 +22204,7 @@
       <c r="AX416" s="3"/>
       <c r="AY416" s="3"/>
     </row>
-    <row r="417" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -22240,7 +22255,7 @@
       <c r="AX417" s="3"/>
       <c r="AY417" s="3"/>
     </row>
-    <row r="418" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -22291,7 +22306,7 @@
       <c r="AX418" s="3"/>
       <c r="AY418" s="3"/>
     </row>
-    <row r="419" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -22342,7 +22357,7 @@
       <c r="AX419" s="3"/>
       <c r="AY419" s="3"/>
     </row>
-    <row r="420" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -22393,7 +22408,7 @@
       <c r="AX420" s="3"/>
       <c r="AY420" s="3"/>
     </row>
-    <row r="421" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -22444,7 +22459,7 @@
       <c r="AX421" s="3"/>
       <c r="AY421" s="3"/>
     </row>
-    <row r="422" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -22495,7 +22510,7 @@
       <c r="AX422" s="3"/>
       <c r="AY422" s="3"/>
     </row>
-    <row r="423" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -22546,7 +22561,7 @@
       <c r="AX423" s="3"/>
       <c r="AY423" s="3"/>
     </row>
-    <row r="424" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -22597,7 +22612,7 @@
       <c r="AX424" s="3"/>
       <c r="AY424" s="3"/>
     </row>
-    <row r="425" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -22648,7 +22663,7 @@
       <c r="AX425" s="3"/>
       <c r="AY425" s="3"/>
     </row>
-    <row r="426" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -22699,7 +22714,7 @@
       <c r="AX426" s="3"/>
       <c r="AY426" s="3"/>
     </row>
-    <row r="427" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -22750,7 +22765,7 @@
       <c r="AX427" s="3"/>
       <c r="AY427" s="3"/>
     </row>
-    <row r="428" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -22801,7 +22816,7 @@
       <c r="AX428" s="3"/>
       <c r="AY428" s="3"/>
     </row>
-    <row r="429" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -22852,7 +22867,7 @@
       <c r="AX429" s="3"/>
       <c r="AY429" s="3"/>
     </row>
-    <row r="430" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -22903,7 +22918,7 @@
       <c r="AX430" s="3"/>
       <c r="AY430" s="3"/>
     </row>
-    <row r="431" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -22954,7 +22969,7 @@
       <c r="AX431" s="3"/>
       <c r="AY431" s="3"/>
     </row>
-    <row r="432" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -23005,7 +23020,7 @@
       <c r="AX432" s="3"/>
       <c r="AY432" s="3"/>
     </row>
-    <row r="433" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -23056,7 +23071,7 @@
       <c r="AX433" s="3"/>
       <c r="AY433" s="3"/>
     </row>
-    <row r="434" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -23107,7 +23122,7 @@
       <c r="AX434" s="3"/>
       <c r="AY434" s="3"/>
     </row>
-    <row r="435" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -23158,7 +23173,7 @@
       <c r="AX435" s="3"/>
       <c r="AY435" s="3"/>
     </row>
-    <row r="436" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -23209,7 +23224,7 @@
       <c r="AX436" s="3"/>
       <c r="AY436" s="3"/>
     </row>
-    <row r="437" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -23260,7 +23275,7 @@
       <c r="AX437" s="3"/>
       <c r="AY437" s="3"/>
     </row>
-    <row r="438" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -23311,7 +23326,7 @@
       <c r="AX438" s="3"/>
       <c r="AY438" s="3"/>
     </row>
-    <row r="439" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -23362,7 +23377,7 @@
       <c r="AX439" s="3"/>
       <c r="AY439" s="3"/>
     </row>
-    <row r="440" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -23413,7 +23428,7 @@
       <c r="AX440" s="3"/>
       <c r="AY440" s="3"/>
     </row>
-    <row r="441" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -23464,7 +23479,7 @@
       <c r="AX441" s="3"/>
       <c r="AY441" s="3"/>
     </row>
-    <row r="442" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -23515,7 +23530,7 @@
       <c r="AX442" s="3"/>
       <c r="AY442" s="3"/>
     </row>
-    <row r="443" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -23566,7 +23581,7 @@
       <c r="AX443" s="3"/>
       <c r="AY443" s="3"/>
     </row>
-    <row r="444" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -23617,7 +23632,7 @@
       <c r="AX444" s="3"/>
       <c r="AY444" s="3"/>
     </row>
-    <row r="445" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -23668,7 +23683,7 @@
       <c r="AX445" s="3"/>
       <c r="AY445" s="3"/>
     </row>
-    <row r="446" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -23719,7 +23734,7 @@
       <c r="AX446" s="3"/>
       <c r="AY446" s="3"/>
     </row>
-    <row r="447" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -23770,7 +23785,7 @@
       <c r="AX447" s="3"/>
       <c r="AY447" s="3"/>
     </row>
-    <row r="448" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -23821,7 +23836,7 @@
       <c r="AX448" s="3"/>
       <c r="AY448" s="3"/>
     </row>
-    <row r="449" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -23872,7 +23887,7 @@
       <c r="AX449" s="3"/>
       <c r="AY449" s="3"/>
     </row>
-    <row r="450" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -23923,7 +23938,7 @@
       <c r="AX450" s="3"/>
       <c r="AY450" s="3"/>
     </row>
-    <row r="451" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -23974,7 +23989,7 @@
       <c r="AX451" s="3"/>
       <c r="AY451" s="3"/>
     </row>
-    <row r="452" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -24025,7 +24040,7 @@
       <c r="AX452" s="3"/>
       <c r="AY452" s="3"/>
     </row>
-    <row r="453" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -24076,7 +24091,7 @@
       <c r="AX453" s="3"/>
       <c r="AY453" s="3"/>
     </row>
-    <row r="454" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -24127,7 +24142,7 @@
       <c r="AX454" s="3"/>
       <c r="AY454" s="3"/>
     </row>
-    <row r="455" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -24178,7 +24193,7 @@
       <c r="AX455" s="3"/>
       <c r="AY455" s="3"/>
     </row>
-    <row r="456" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -24229,7 +24244,7 @@
       <c r="AX456" s="3"/>
       <c r="AY456" s="3"/>
     </row>
-    <row r="457" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -24280,7 +24295,7 @@
       <c r="AX457" s="3"/>
       <c r="AY457" s="3"/>
     </row>
-    <row r="458" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -24331,7 +24346,7 @@
       <c r="AX458" s="3"/>
       <c r="AY458" s="3"/>
     </row>
-    <row r="459" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -24382,7 +24397,7 @@
       <c r="AX459" s="3"/>
       <c r="AY459" s="3"/>
     </row>
-    <row r="460" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -24433,7 +24448,7 @@
       <c r="AX460" s="3"/>
       <c r="AY460" s="3"/>
     </row>
-    <row r="461" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -24484,7 +24499,7 @@
       <c r="AX461" s="3"/>
       <c r="AY461" s="3"/>
     </row>
-    <row r="462" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
@@ -24535,7 +24550,7 @@
       <c r="AX462" s="3"/>
       <c r="AY462" s="3"/>
     </row>
-    <row r="463" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
@@ -24586,7 +24601,7 @@
       <c r="AX463" s="3"/>
       <c r="AY463" s="3"/>
     </row>
-    <row r="464" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -24637,7 +24652,7 @@
       <c r="AX464" s="3"/>
       <c r="AY464" s="3"/>
     </row>
-    <row r="465" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -24688,7 +24703,7 @@
       <c r="AX465" s="3"/>
       <c r="AY465" s="3"/>
     </row>
-    <row r="466" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -24739,7 +24754,7 @@
       <c r="AX466" s="3"/>
       <c r="AY466" s="3"/>
     </row>
-    <row r="467" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -24790,7 +24805,7 @@
       <c r="AX467" s="3"/>
       <c r="AY467" s="3"/>
     </row>
-    <row r="468" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
@@ -24841,7 +24856,7 @@
       <c r="AX468" s="3"/>
       <c r="AY468" s="3"/>
     </row>
-    <row r="469" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -24892,7 +24907,7 @@
       <c r="AX469" s="3"/>
       <c r="AY469" s="3"/>
     </row>
-    <row r="470" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -24943,7 +24958,7 @@
       <c r="AX470" s="3"/>
       <c r="AY470" s="3"/>
     </row>
-    <row r="471" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -24994,7 +25009,7 @@
       <c r="AX471" s="3"/>
       <c r="AY471" s="3"/>
     </row>
-    <row r="472" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
@@ -25045,7 +25060,7 @@
       <c r="AX472" s="3"/>
       <c r="AY472" s="3"/>
     </row>
-    <row r="473" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
@@ -25096,7 +25111,7 @@
       <c r="AX473" s="3"/>
       <c r="AY473" s="3"/>
     </row>
-    <row r="474" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -25147,7 +25162,7 @@
       <c r="AX474" s="3"/>
       <c r="AY474" s="3"/>
     </row>
-    <row r="475" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -25198,7 +25213,7 @@
       <c r="AX475" s="3"/>
       <c r="AY475" s="3"/>
     </row>
-    <row r="476" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -25249,7 +25264,7 @@
       <c r="AX476" s="3"/>
       <c r="AY476" s="3"/>
     </row>
-    <row r="477" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -25300,7 +25315,7 @@
       <c r="AX477" s="3"/>
       <c r="AY477" s="3"/>
     </row>
-    <row r="478" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -25351,7 +25366,7 @@
       <c r="AX478" s="3"/>
       <c r="AY478" s="3"/>
     </row>
-    <row r="479" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -25402,7 +25417,7 @@
       <c r="AX479" s="3"/>
       <c r="AY479" s="3"/>
     </row>
-    <row r="480" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -25453,7 +25468,7 @@
       <c r="AX480" s="3"/>
       <c r="AY480" s="3"/>
     </row>
-    <row r="481" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -25504,7 +25519,7 @@
       <c r="AX481" s="3"/>
       <c r="AY481" s="3"/>
     </row>
-    <row r="482" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -25555,7 +25570,7 @@
       <c r="AX482" s="3"/>
       <c r="AY482" s="3"/>
     </row>
-    <row r="483" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -25606,7 +25621,7 @@
       <c r="AX483" s="3"/>
       <c r="AY483" s="3"/>
     </row>
-    <row r="484" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -25657,7 +25672,7 @@
       <c r="AX484" s="3"/>
       <c r="AY484" s="3"/>
     </row>
-    <row r="485" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -25708,7 +25723,7 @@
       <c r="AX485" s="3"/>
       <c r="AY485" s="3"/>
     </row>
-    <row r="486" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -25759,7 +25774,7 @@
       <c r="AX486" s="3"/>
       <c r="AY486" s="3"/>
     </row>
-    <row r="487" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
@@ -25810,7 +25825,7 @@
       <c r="AX487" s="3"/>
       <c r="AY487" s="3"/>
     </row>
-    <row r="488" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
@@ -25861,7 +25876,7 @@
       <c r="AX488" s="3"/>
       <c r="AY488" s="3"/>
     </row>
-    <row r="489" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
@@ -25912,7 +25927,7 @@
       <c r="AX489" s="3"/>
       <c r="AY489" s="3"/>
     </row>
-    <row r="490" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -25963,7 +25978,7 @@
       <c r="AX490" s="3"/>
       <c r="AY490" s="3"/>
     </row>
-    <row r="491" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
@@ -26014,7 +26029,7 @@
       <c r="AX491" s="3"/>
       <c r="AY491" s="3"/>
     </row>
-    <row r="492" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
@@ -26065,7 +26080,7 @@
       <c r="AX492" s="3"/>
       <c r="AY492" s="3"/>
     </row>
-    <row r="493" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
@@ -26116,7 +26131,7 @@
       <c r="AX493" s="3"/>
       <c r="AY493" s="3"/>
     </row>
-    <row r="494" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
@@ -26167,7 +26182,7 @@
       <c r="AX494" s="3"/>
       <c r="AY494" s="3"/>
     </row>
-    <row r="495" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
